--- a/src/test/test_data/Booking.xlsx
+++ b/src/test/test_data/Booking.xlsx
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>23</v>
@@ -599,7 +599,7 @@
         <v>24</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
@@ -643,7 +643,7 @@
         <v>24</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>23</v>
@@ -655,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test_data/Booking.xlsx
+++ b/src/test/test_data/Booking.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\QA projekti\Automation_projekti\POMv15.1\src\test\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF2B079-7C70-408F-91C8-C92919994A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-1215" yWindow="-7875" windowWidth="22950" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Flights" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Лист1" sheetId="2" r:id="rId5"/>
+    <sheet name="Flights" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgv2E2InM5GkbxKPvpFsFPXJJ/DQQ=="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t>TC_ID</t>
   </si>
@@ -110,26 +119,49 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>expectedText3</t>
+  </si>
+  <si>
+    <t>Tue 20 Dec</t>
+  </si>
+  <si>
+    <t>Fri 30 Dec</t>
+  </si>
+  <si>
+    <t>expectedText4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -139,7 +171,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -155,41 +187,54 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -199,51 +244,43 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -433,228 +470,250 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.63"/>
-    <col customWidth="1" min="2" max="2" width="15.5"/>
-    <col customWidth="1" min="3" max="3" width="25.88"/>
-    <col customWidth="1" min="4" max="4" width="14.38"/>
-    <col customWidth="1" min="5" max="5" width="8.38"/>
-    <col customWidth="1" min="6" max="6" width="4.75"/>
-    <col customWidth="1" min="7" max="7" width="14.38"/>
-    <col customWidth="1" min="8" max="8" width="10.88"/>
-    <col customWidth="1" min="9" max="9" width="8.38"/>
-    <col customWidth="1" min="10" max="10" width="4.75"/>
-    <col customWidth="1" min="11" max="11" width="25.88"/>
-    <col customWidth="1" min="12" max="12" width="14.38"/>
-    <col customWidth="1" min="13" max="13" width="8.38"/>
-    <col customWidth="1" min="14" max="14" width="4.75"/>
-    <col customWidth="1" min="15" max="15" width="25.88"/>
-    <col customWidth="1" min="16" max="16" width="14.38"/>
-    <col customWidth="1" min="17" max="17" width="8.38"/>
-    <col customWidth="1" min="18" max="18" width="4.75"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="16" max="16" width="25.85546875" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" customWidth="1"/>
+    <col min="20" max="20" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="N3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="O4" s="7"/>
+      <c r="P4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="Q4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="T4" s="7" t="s">
         <v>28</v>
       </c>
     </row>
@@ -662,20 +721,21 @@
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>